--- a/Doc/JDT-Thibaud.xlsx
+++ b/Doc/JDT-Thibaud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thibaudracine/Documents/GitHub/324_portfolio_app1_Racine-Thibaud/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112E2BC1-B42F-B948-984D-B12358FAB70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EC5FFC-D68F-DD42-A2F1-499DF7DC2159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17240" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Auteur:</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t xml:space="preserve">Rédaction du markdown avec les notes prise pendant les autres cours </t>
+  </si>
+  <si>
+    <t>Création des tâches dans le Projet GitHub</t>
+  </si>
+  <si>
+    <t>Markdown : Rédaction des Objectifs du Projet</t>
+  </si>
+  <si>
+    <t>Markdown : Rédaction Planification et Config Environnement</t>
+  </si>
+  <si>
+    <t>Amélioration des tâches dans le projet GitHub</t>
+  </si>
+  <si>
+    <t>Lecture du cahier des charges et prise de notes</t>
   </si>
 </sst>
 </file>
@@ -273,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +355,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -377,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,6 +576,30 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1085,7 +1130,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3915,6 +3960,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
@@ -4123,7 +4172,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4155,15 +4204,15 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4172,13 +4221,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="76" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>1 heures 15 minutes</v>
+        <v>3 heures 0 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4197,20 +4246,20 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E4" s="27">
         <f>SUM(C4:D4)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="79"/>
+      <c r="D5" s="86"/>
     </row>
     <row r="6" spans="1:15" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -4313,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>49</v>
@@ -4322,9 +4371,15 @@
         <v>45631</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="36">
+        <v>30</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="43"/>
       <c r="M10" t="s">
         <v>3</v>
@@ -4336,16 +4391,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="str">
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="72">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="B11" s="38">
+        <v>45631</v>
+      </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="40">
+        <v>20</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="44"/>
       <c r="M11" t="s">
         <v>4</v>
@@ -4357,16 +4420,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="str">
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="71">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="34">
+        <v>45631</v>
+      </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="36">
+        <v>15</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="43"/>
       <c r="N12">
         <v>5</v>
@@ -4375,16 +4446,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="str">
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="72">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="B13" s="38">
+        <v>45631</v>
+      </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="40">
+        <v>20</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="44"/>
       <c r="N13">
         <v>6</v>
@@ -4393,16 +4472,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="str">
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="71">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="B14" s="34">
+        <v>45631</v>
+      </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="26"/>
+      <c r="D14" s="36">
+        <v>20</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="43"/>
       <c r="N14">
         <v>7</v>
@@ -4412,16 +4499,16 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="str">
+      <c r="A15" s="78" t="str">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v/>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
       <c r="N15">
         <v>8</v>
       </c>
@@ -10646,7 +10733,7 @@
       <c r="G532" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J0cMmQigG8JzOVEDOBvQ4mpeuTlGpWkVubufyJg0V4xqofl7Zkg+suusBWOqjZhzS0xTQ2rP+HIX/Fpee65gjg==" saltValue="Hi6psZN3nu0M3YdVVUiljg==" spinCount="100000" sheet="1" insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
@@ -10896,11 +10983,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>'Journal de travail'!M11</f>
@@ -10908,7 +10995,7 @@
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 15 min</v>
+        <v>3 h 00 min</v>
       </c>
       <c r="G9" s="54">
         <f t="shared" si="2"/>
@@ -10933,22 +11020,22 @@
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 15 min</v>
+        <v>3 h 00 min</v>
       </c>
       <c r="G10" s="55">
         <f>C10/C11</f>
-        <v>1.4204545454545454E-2</v>
+        <v>3.4090909090909088E-2</v>
       </c>
       <c r="L10" s="65" t="s">
         <v>18</v>
@@ -10992,26 +11079,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="438c9102f2c873572ee53782e3c89f23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7be26b22cb6e6d4b7374fec5a60b7d" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11206,28 +11273,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0FE8E31-C0A2-4F58-8D4B-0B811B1C703F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11244,4 +11310,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/JDT-Thibaud.xlsx
+++ b/Doc/JDT-Thibaud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thibaudracine/Documents/GitHub/324_portfolio_app1_Racine-Thibaud/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EC5FFC-D68F-DD42-A2F1-499DF7DC2159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39E5A24-5991-7C4D-895B-E57878C7DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17240" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Auteur:</t>
   </si>
@@ -158,6 +158,60 @@
   </si>
   <si>
     <t>Lecture du cahier des charges et prise de notes</t>
+  </si>
+  <si>
+    <t>Malade</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Recherche d'une deuxième app pour le portfolio.</t>
+  </si>
+  <si>
+    <t>Création du repo pour la deuxième app Flask Login System</t>
+  </si>
+  <si>
+    <t>Mise en page de la documentation sur un fichier Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration de l'environnement de développement </t>
+  </si>
+  <si>
+    <t>Documentation de la mise en place et configuration de l'environnement de développement</t>
+  </si>
+  <si>
+    <t>Configuration ID Gecko, Création du fichier TODO sur OneDrive et install des dépendances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déployement de l'addon Firefox </t>
+  </si>
+  <si>
+    <t>Génération des clés API et ajout du code source</t>
+  </si>
+  <si>
+    <t>Documentation sur le déployement de l'addon Firefox</t>
+  </si>
+  <si>
+    <t>Mise en place de l'environnement de tests pour l'addon FireFox</t>
+  </si>
+  <si>
+    <t>Installation de Vitest et node pour les Tests unitaires</t>
+  </si>
+  <si>
+    <t>Documentation sur la mise en place de l'environnement de tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place du GitHub Action pour automatiser les tests </t>
+  </si>
+  <si>
+    <t>J'ai ajouté un bête test pour voir si cela fonctionnait</t>
+  </si>
+  <si>
+    <t>Documentation sur la mise en place de GitHub Action</t>
+  </si>
+  <si>
+    <t>Sauvegarde du cache et artifact automatique avec GitHub Action</t>
   </si>
 </sst>
 </file>
@@ -288,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +415,18 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -398,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -612,11 +678,122 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1124,13 +1301,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,13 +2153,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.36046511627906974</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.63953488372093026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,23 +4137,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="22">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4171,8 +4344,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4183,7 +4356,7 @@
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.1640625" customWidth="1"/>
+    <col min="7" max="7" width="86.83203125" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -4227,7 +4400,7 @@
       <c r="B3" s="87"/>
       <c r="C3" s="76" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>3 heures 0 minutes</v>
+        <v>8 heures 5 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4246,11 +4419,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>180</v>
+        <v>485</v>
       </c>
       <c r="E4" s="27">
         <f>SUM(C4:D4)</f>
-        <v>180</v>
+        <v>485</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4516,228 +4689,345 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="str">
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="71">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B16" s="34">
+        <v>45635</v>
+      </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="36">
+        <v>20</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="43"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="str">
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="72">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="38">
+        <v>45635</v>
+      </c>
       <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="40">
+        <v>30</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>46</v>
+      </c>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="str">
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="71">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B18" s="34">
+        <v>45635</v>
+      </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="36">
+        <v>15</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="G18" s="43"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="str">
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="72">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="B19" s="38">
+        <v>45635</v>
+      </c>
       <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="44"/>
+      <c r="D19" s="40">
+        <v>20</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="str">
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="71">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="34">
+        <v>45635</v>
+      </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="26"/>
+      <c r="D20" s="36">
+        <v>15</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="G20" s="43"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="str">
+      <c r="A21" s="78" t="str">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v/>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="str">
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="71">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B22" s="34">
+        <v>45638</v>
+      </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="36">
+        <v>55</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="str">
+      <c r="A23" s="78" t="str">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v/>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="str">
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="71">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="B24" s="34">
+        <v>45642</v>
+      </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="36">
+        <v>20</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="72" t="str">
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="72">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="B25" s="38">
+        <v>45642</v>
+      </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="40">
+        <v>10</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="str">
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="71">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="B26" s="34">
+        <v>45642</v>
+      </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="str">
+      <c r="D26" s="36">
+        <v>20</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="72">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="B27" s="38">
+        <v>45642</v>
+      </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="str">
+      <c r="D27" s="40">
+        <v>10</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="71">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="B28" s="34">
+        <v>45642</v>
+      </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="36">
+        <v>45</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="98" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="72">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="B29" s="38">
+        <v>45642</v>
+      </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="40">
+        <v>15</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="71" t="str">
+      <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="43"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="92"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="str">
+      <c r="A31" s="72">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="B31" s="38">
+        <v>45645</v>
+      </c>
       <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="25"/>
+      <c r="D31" s="40">
+        <v>30</v>
+      </c>
+      <c r="E31" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="str">
+      <c r="A32" s="71">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="B32" s="34">
+        <v>45645</v>
+      </c>
       <c r="C32" s="35"/>
       <c r="D32" s="36"/>
       <c r="E32" s="37"/>
       <c r="F32" s="26"/>
       <c r="G32" s="43"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="72" t="str">
+      <c r="A33" s="72">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="B33" s="38">
+        <v>45645</v>
+      </c>
       <c r="C33" s="39"/>
       <c r="D33" s="40"/>
       <c r="E33" s="41"/>
@@ -4745,40 +5035,44 @@
       <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="str">
+      <c r="A34" s="71">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="B34" s="34">
+        <v>45645</v>
+      </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="37"/>
       <c r="F34" s="25"/>
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="72" t="str">
+      <c r="A35" s="72">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="B35" s="38">
+        <v>45645</v>
+      </c>
       <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="41"/>
       <c r="F35" s="26"/>
       <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="71" t="str">
+      <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="43"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="92"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="72" t="str">
@@ -10740,41 +11034,67 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="E7:E21 E23:E532">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="7" priority="18">
+      <formula>$D35="Autre"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
+      <formula>$D35="Design"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="20" stopIfTrue="1">
+      <formula>$D35="Présentation"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
+      <formula>$D35="Meeting"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
+      <formula>$D35="Documentation"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="23" stopIfTrue="1">
+      <formula>$D35="Test"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
+      <formula>$D35="Analyse"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>$D35="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
       <formula1>$N$7:$N$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D532" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E21 E23:E532 D35" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
+      <formula1>$M$7:$M$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D33 D35:D532 H32" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
       <formula1>$O$7:$O$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E532" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
-      <formula1>$M$7:$M$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10791,7 +11111,7 @@
   <dimension ref="A2:N12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A8:XFD8"/>
+      <selection activeCell="D7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10909,11 +11229,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="E7" s="28" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10921,11 +11241,11 @@
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>0 h 00 min</v>
+        <v>2 h 35 min</v>
       </c>
       <c r="G7" s="54">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0</v>
+        <v>0.36046511627906974</v>
       </c>
       <c r="L7" s="62" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10983,11 +11303,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>'Journal de travail'!M11</f>
@@ -10995,11 +11315,11 @@
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 00 min</v>
+        <v>4 h 35 min</v>
       </c>
       <c r="G9" s="54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.63953488372093026</v>
       </c>
       <c r="L9" s="64" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11020,22 +11340,22 @@
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 00 min</v>
+        <v>7 h 10 min</v>
       </c>
       <c r="G10" s="55">
         <f>C10/C11</f>
-        <v>3.4090909090909088E-2</v>
+        <v>8.1439393939393936E-2</v>
       </c>
       <c r="L10" s="65" t="s">
         <v>18</v>
@@ -11056,7 +11376,6 @@
       <c r="F12" s="49"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uUegAJ0zdAusDcOf3en73L5ZNP0cz+qyzL+KwkOPao3aJqynoKuocLlsQrShjMwrq5gdKGShXjoYCXvDreYtSg==" saltValue="o84qDdvSZ3Es6qbaOlmJjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11079,6 +11398,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="438c9102f2c873572ee53782e3c89f23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7be26b22cb6e6d4b7374fec5a60b7d" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11273,17 +11603,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11294,6 +11613,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0FE8E31-C0A2-4F58-8D4B-0B811B1C703F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11312,23 +11648,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>

--- a/Doc/JDT-Thibaud.xlsx
+++ b/Doc/JDT-Thibaud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thibaudracine/Documents/GitHub/324_portfolio_app1_Racine-Thibaud/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\324_portfolio_app1_Racine-Thibaud\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39E5A24-5991-7C4D-895B-E57878C7DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41F2EC5-FD4C-4C31-AB11-66D264A75A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Auteur:</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>Sauvegarde du cache et artifact automatique avec GitHub Action</t>
+  </si>
+  <si>
+    <t>Création du workflow pour Flask Login System</t>
+  </si>
+  <si>
+    <t>Peine à répertorier le fichier de test dans le .yaml</t>
+  </si>
+  <si>
+    <t>Création des tests pour Flask Login System avec des tests sur le Login, Le register et le logout</t>
+  </si>
+  <si>
+    <t>Documentation des tests unitaires dans la doc</t>
+  </si>
+  <si>
+    <t>Implémentation des tests E2E</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -668,16 +683,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -693,10 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -715,85 +716,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1076,7 +1013,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1113,7 +1050,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1242,7 +1179,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1301,13 +1238,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,7 +1302,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1402,7 +1339,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1416,7 +1353,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1453,7 +1390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1589,7 +1526,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1712,7 +1649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1749,7 +1686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1763,7 +1700,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1831,7 +1768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1988,7 +1925,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2106,7 +2043,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2153,13 +2090,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36046511627906974</c:v>
+                  <c:v>0.48695652173913045</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63953488372093026</c:v>
+                  <c:v>0.5130434782608696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,7 +2161,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="686342815"/>
@@ -2308,7 +2245,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2345,7 +2282,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4138,18 +4075,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G528" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A6:G528" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4341,31 +4278,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF2E8F1-C793-7E43-B3DE-C075053A97DA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O532"/>
+  <dimension ref="A1:O528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="86.83203125" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.875" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -4376,16 +4313,16 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4393,14 +4330,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="76" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>8 heures 5 minutes</v>
+        <v>10 heures 30 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4411,30 +4348,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="17">
-        <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
+        <f>SUBTOTAL(9,$C$7:$C$527)*60</f>
         <v>0</v>
       </c>
       <c r="D4" s="17">
-        <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>485</v>
+        <f>SUBTOTAL(9,$D$7:$D$527)</f>
+        <v>630</v>
       </c>
       <c r="E4" s="27">
         <f>SUM(C4:D4)</f>
-        <v>485</v>
+        <v>630</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="86" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="86"/>
-    </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -4457,7 +4394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>49</v>
@@ -4477,7 +4414,7 @@
       </c>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>49</v>
@@ -4506,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>49</v>
@@ -4535,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>49</v>
@@ -4564,7 +4501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>49</v>
@@ -4593,7 +4530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>49</v>
@@ -4619,7 +4556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>49</v>
@@ -4645,7 +4582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>49</v>
@@ -4671,7 +4608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="str">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v/>
@@ -4689,7 +4626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>50</v>
@@ -4712,7 +4649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="72">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>50</v>
@@ -4724,7 +4661,7 @@
       <c r="D17" s="40">
         <v>30</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -4737,7 +4674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>50</v>
@@ -4760,7 +4697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>50</v>
@@ -4772,7 +4709,7 @@
       <c r="D19" s="40">
         <v>20</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="26" t="s">
@@ -4785,7 +4722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>50</v>
@@ -4805,7 +4742,7 @@
       </c>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="str">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v/>
@@ -4817,7 +4754,7 @@
       <c r="F21" s="83"/>
       <c r="G21" s="84"/>
     </row>
-    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>50</v>
@@ -4829,7 +4766,7 @@
       <c r="D22" s="36">
         <v>55</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="90" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -4837,7 +4774,7 @@
       </c>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="str">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v/>
@@ -4849,7 +4786,7 @@
       <c r="F23" s="83"/>
       <c r="G23" s="84"/>
     </row>
-    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="71">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v>51</v>
@@ -4869,7 +4806,7 @@
       </c>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v>51</v>
@@ -4881,7 +4818,7 @@
       <c r="D25" s="40">
         <v>10</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -4889,7 +4826,7 @@
       </c>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v>51</v>
@@ -4901,7 +4838,7 @@
       <c r="D26" s="36">
         <v>20</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="93" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -4911,7 +4848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="72">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v>51</v>
@@ -4933,7 +4870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v>51</v>
@@ -4945,15 +4882,15 @@
       <c r="D28" s="36">
         <v>45</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="94" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="43"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v>51</v>
@@ -4973,19 +4910,19 @@
       </c>
       <c r="G29" s="44"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="83"/>
-      <c r="G30" s="92"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G30" s="89"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="72">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v>51</v>
@@ -4997,7 +4934,7 @@
       <c r="D31" s="40">
         <v>30</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="25" t="s">
@@ -5005,76 +4942,101 @@
       </c>
       <c r="G31" s="44"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="71">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v>51</v>
-      </c>
-      <c r="B32" s="34">
-        <v>45645</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="89"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v>51</v>
       </c>
       <c r="B33" s="38">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="40">
+        <v>50</v>
+      </c>
+      <c r="E33" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="71">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v>51</v>
       </c>
       <c r="B34" s="34">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="25"/>
+      <c r="D34" s="36">
+        <v>30</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="72">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v>51</v>
       </c>
       <c r="B35" s="38">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="C35" s="39"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="26"/>
+      <c r="D35" s="40">
+        <v>20</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="G35" s="44"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="str">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="71">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="92"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="B36" s="34">
+        <v>45646</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36">
+        <v>45</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -5086,7 +5048,7 @@
       <c r="F37" s="25"/>
       <c r="G37" s="44"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="71" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -5098,7 +5060,7 @@
       <c r="F38" s="25"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="72" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -5110,7 +5072,7 @@
       <c r="F39" s="25"/>
       <c r="G39" s="44"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="71" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -5122,7 +5084,7 @@
       <c r="F40" s="25"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="72" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -5134,7 +5096,7 @@
       <c r="F41" s="25"/>
       <c r="G41" s="44"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="71" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -5146,7 +5108,7 @@
       <c r="F42" s="25"/>
       <c r="G42" s="43"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="72" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -5158,7 +5120,7 @@
       <c r="F43" s="25"/>
       <c r="G43" s="44"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="71" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -5170,7 +5132,7 @@
       <c r="F44" s="25"/>
       <c r="G44" s="43"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -5182,7 +5144,7 @@
       <c r="F45" s="25"/>
       <c r="G45" s="44"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="71" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -5194,7 +5156,7 @@
       <c r="F46" s="25"/>
       <c r="G46" s="43"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="72" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -5206,7 +5168,7 @@
       <c r="F47" s="25"/>
       <c r="G47" s="44"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="71" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -5218,7 +5180,7 @@
       <c r="F48" s="25"/>
       <c r="G48" s="43"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="72" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -5230,7 +5192,7 @@
       <c r="F49" s="25"/>
       <c r="G49" s="44"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="71" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -5242,7 +5204,7 @@
       <c r="F50" s="25"/>
       <c r="G50" s="43"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -5254,7 +5216,7 @@
       <c r="F51" s="25"/>
       <c r="G51" s="44"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="71" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -5263,10 +5225,10 @@
       <c r="C52" s="35"/>
       <c r="D52" s="36"/>
       <c r="E52" s="37"/>
-      <c r="F52" s="25"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="43"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -5275,10 +5237,10 @@
       <c r="C53" s="39"/>
       <c r="D53" s="40"/>
       <c r="E53" s="41"/>
-      <c r="F53" s="25"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="44"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="71" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -5287,10 +5249,10 @@
       <c r="C54" s="35"/>
       <c r="D54" s="36"/>
       <c r="E54" s="37"/>
-      <c r="F54" s="25"/>
+      <c r="F54" s="43"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="72" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -5299,10 +5261,10 @@
       <c r="C55" s="39"/>
       <c r="D55" s="40"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="25"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="44"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="71" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -5314,7 +5276,7 @@
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="72" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -5326,7 +5288,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="71" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -5338,7 +5300,7 @@
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -5350,7 +5312,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="71" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -5362,7 +5324,7 @@
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="72" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -5374,7 +5336,7 @@
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="71" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -5386,7 +5348,7 @@
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="72" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -5398,7 +5360,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="71" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -5410,7 +5372,7 @@
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="72" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -5422,7 +5384,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="71" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -5434,7 +5396,7 @@
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="72" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -5446,7 +5408,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="71" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -5458,7 +5420,7 @@
       <c r="F68" s="43"/>
       <c r="G68" s="43"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="72" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -5470,7 +5432,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="71" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -5482,7 +5444,7 @@
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="72" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -5494,7 +5456,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="71" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -5506,7 +5468,7 @@
       <c r="F72" s="43"/>
       <c r="G72" s="43"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="72" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -5518,7 +5480,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="71" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -5530,7 +5492,7 @@
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="72" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -5542,7 +5504,7 @@
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="71" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -5554,7 +5516,7 @@
       <c r="F76" s="43"/>
       <c r="G76" s="43"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="72" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -5566,7 +5528,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="71" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -5578,7 +5540,7 @@
       <c r="F78" s="43"/>
       <c r="G78" s="43"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="72" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -5590,7 +5552,7 @@
       <c r="F79" s="44"/>
       <c r="G79" s="44"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="71" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -5602,7 +5564,7 @@
       <c r="F80" s="43"/>
       <c r="G80" s="43"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="72" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -5614,7 +5576,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="71" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -5626,7 +5588,7 @@
       <c r="F82" s="43"/>
       <c r="G82" s="43"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="72" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -5638,7 +5600,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="71" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -5650,7 +5612,7 @@
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="72" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -5662,7 +5624,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="71" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -5674,7 +5636,7 @@
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="72" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -5686,7 +5648,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="71" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -5698,7 +5660,7 @@
       <c r="F88" s="43"/>
       <c r="G88" s="43"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="72" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -5710,7 +5672,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="71" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -5722,7 +5684,7 @@
       <c r="F90" s="43"/>
       <c r="G90" s="43"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="72" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -5734,7 +5696,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="71" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -5746,7 +5708,7 @@
       <c r="F92" s="43"/>
       <c r="G92" s="43"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="72" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -5758,7 +5720,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="71" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -5770,7 +5732,7 @@
       <c r="F94" s="43"/>
       <c r="G94" s="43"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="72" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -5782,7 +5744,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="71" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -5794,7 +5756,7 @@
       <c r="F96" s="43"/>
       <c r="G96" s="43"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="72" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -5806,7 +5768,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="44"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="71" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -5818,7 +5780,7 @@
       <c r="F98" s="43"/>
       <c r="G98" s="43"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="72" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -5830,7 +5792,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="44"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="71" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -5842,7 +5804,7 @@
       <c r="F100" s="43"/>
       <c r="G100" s="43"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="72" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -5854,7 +5816,7 @@
       <c r="F101" s="44"/>
       <c r="G101" s="44"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="71" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -5866,7 +5828,7 @@
       <c r="F102" s="43"/>
       <c r="G102" s="43"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="72" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -5878,7 +5840,7 @@
       <c r="F103" s="44"/>
       <c r="G103" s="44"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="71" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -5890,7 +5852,7 @@
       <c r="F104" s="43"/>
       <c r="G104" s="43"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="72" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -5902,7 +5864,7 @@
       <c r="F105" s="44"/>
       <c r="G105" s="44"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="71" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -5914,7 +5876,7 @@
       <c r="F106" s="43"/>
       <c r="G106" s="43"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="72" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -5926,7 +5888,7 @@
       <c r="F107" s="44"/>
       <c r="G107" s="44"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="71" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -5938,7 +5900,7 @@
       <c r="F108" s="43"/>
       <c r="G108" s="43"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="72" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -5950,7 +5912,7 @@
       <c r="F109" s="44"/>
       <c r="G109" s="44"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="71" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -5962,7 +5924,7 @@
       <c r="F110" s="43"/>
       <c r="G110" s="43"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="72" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -5974,7 +5936,7 @@
       <c r="F111" s="44"/>
       <c r="G111" s="44"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="71" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -5986,7 +5948,7 @@
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="72" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -5998,7 +5960,7 @@
       <c r="F113" s="44"/>
       <c r="G113" s="44"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="71" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -6010,7 +5972,7 @@
       <c r="F114" s="43"/>
       <c r="G114" s="43"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="72" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -6022,7 +5984,7 @@
       <c r="F115" s="44"/>
       <c r="G115" s="44"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="71" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -6034,7 +5996,7 @@
       <c r="F116" s="43"/>
       <c r="G116" s="43"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="72" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -6046,7 +6008,7 @@
       <c r="F117" s="44"/>
       <c r="G117" s="44"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="71" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -6058,7 +6020,7 @@
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="72" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -6070,7 +6032,7 @@
       <c r="F119" s="44"/>
       <c r="G119" s="44"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="71" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -6082,7 +6044,7 @@
       <c r="F120" s="43"/>
       <c r="G120" s="43"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="72" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -6094,7 +6056,7 @@
       <c r="F121" s="44"/>
       <c r="G121" s="44"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="71" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -6106,7 +6068,7 @@
       <c r="F122" s="43"/>
       <c r="G122" s="43"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="72" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -6118,7 +6080,7 @@
       <c r="F123" s="44"/>
       <c r="G123" s="44"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="71" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -6130,7 +6092,7 @@
       <c r="F124" s="43"/>
       <c r="G124" s="43"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="72" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -6142,7 +6104,7 @@
       <c r="F125" s="44"/>
       <c r="G125" s="44"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="71" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -6154,7 +6116,7 @@
       <c r="F126" s="43"/>
       <c r="G126" s="43"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="72" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -6166,7 +6128,7 @@
       <c r="F127" s="44"/>
       <c r="G127" s="44"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="71" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -6178,7 +6140,7 @@
       <c r="F128" s="43"/>
       <c r="G128" s="43"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="72" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -6190,7 +6152,7 @@
       <c r="F129" s="44"/>
       <c r="G129" s="44"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="71" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -6202,7 +6164,7 @@
       <c r="F130" s="43"/>
       <c r="G130" s="43"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="72" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -6214,7 +6176,7 @@
       <c r="F131" s="44"/>
       <c r="G131" s="44"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="71" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -6226,7 +6188,7 @@
       <c r="F132" s="43"/>
       <c r="G132" s="43"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="72" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -6238,7 +6200,7 @@
       <c r="F133" s="44"/>
       <c r="G133" s="44"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="71" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -6250,7 +6212,7 @@
       <c r="F134" s="43"/>
       <c r="G134" s="43"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="72" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -6262,7 +6224,7 @@
       <c r="F135" s="44"/>
       <c r="G135" s="44"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="71" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -6274,7 +6236,7 @@
       <c r="F136" s="43"/>
       <c r="G136" s="43"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="72" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -6286,7 +6248,7 @@
       <c r="F137" s="44"/>
       <c r="G137" s="44"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="71" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -6298,7 +6260,7 @@
       <c r="F138" s="43"/>
       <c r="G138" s="43"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -6310,7 +6272,7 @@
       <c r="F139" s="44"/>
       <c r="G139" s="44"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="71" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -6322,7 +6284,7 @@
       <c r="F140" s="43"/>
       <c r="G140" s="43"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="72" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -6334,7 +6296,7 @@
       <c r="F141" s="44"/>
       <c r="G141" s="44"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="71" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -6346,7 +6308,7 @@
       <c r="F142" s="43"/>
       <c r="G142" s="43"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="72" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -6358,7 +6320,7 @@
       <c r="F143" s="44"/>
       <c r="G143" s="44"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="71" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -6370,7 +6332,7 @@
       <c r="F144" s="43"/>
       <c r="G144" s="43"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="72" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -6382,7 +6344,7 @@
       <c r="F145" s="44"/>
       <c r="G145" s="44"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="71" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -6394,7 +6356,7 @@
       <c r="F146" s="43"/>
       <c r="G146" s="43"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="72" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -6406,7 +6368,7 @@
       <c r="F147" s="44"/>
       <c r="G147" s="44"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="71" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -6418,7 +6380,7 @@
       <c r="F148" s="43"/>
       <c r="G148" s="43"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="72" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -6430,7 +6392,7 @@
       <c r="F149" s="44"/>
       <c r="G149" s="44"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="71" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -6442,7 +6404,7 @@
       <c r="F150" s="43"/>
       <c r="G150" s="43"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="72" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -6454,7 +6416,7 @@
       <c r="F151" s="44"/>
       <c r="G151" s="44"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="71" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -6466,7 +6428,7 @@
       <c r="F152" s="43"/>
       <c r="G152" s="43"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="72" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -6478,7 +6440,7 @@
       <c r="F153" s="44"/>
       <c r="G153" s="44"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="71" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -6490,7 +6452,7 @@
       <c r="F154" s="43"/>
       <c r="G154" s="43"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="72" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -6502,7 +6464,7 @@
       <c r="F155" s="44"/>
       <c r="G155" s="44"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="71" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -6514,7 +6476,7 @@
       <c r="F156" s="43"/>
       <c r="G156" s="43"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="72" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -6526,7 +6488,7 @@
       <c r="F157" s="44"/>
       <c r="G157" s="44"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="71" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -6538,7 +6500,7 @@
       <c r="F158" s="43"/>
       <c r="G158" s="43"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="72" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -6550,7 +6512,7 @@
       <c r="F159" s="44"/>
       <c r="G159" s="44"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="71" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -6562,7 +6524,7 @@
       <c r="F160" s="43"/>
       <c r="G160" s="43"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="72" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -6574,7 +6536,7 @@
       <c r="F161" s="44"/>
       <c r="G161" s="44"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="71" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -6586,7 +6548,7 @@
       <c r="F162" s="43"/>
       <c r="G162" s="43"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="72" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -6598,7 +6560,7 @@
       <c r="F163" s="44"/>
       <c r="G163" s="44"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="71" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -6610,7 +6572,7 @@
       <c r="F164" s="43"/>
       <c r="G164" s="43"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="72" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -6622,7 +6584,7 @@
       <c r="F165" s="44"/>
       <c r="G165" s="44"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="71" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -6634,7 +6596,7 @@
       <c r="F166" s="43"/>
       <c r="G166" s="43"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="72" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -6646,7 +6608,7 @@
       <c r="F167" s="44"/>
       <c r="G167" s="44"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="71" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -6658,7 +6620,7 @@
       <c r="F168" s="43"/>
       <c r="G168" s="43"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="72" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -6670,7 +6632,7 @@
       <c r="F169" s="44"/>
       <c r="G169" s="44"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="71" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -6682,7 +6644,7 @@
       <c r="F170" s="43"/>
       <c r="G170" s="43"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="72" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -6694,7 +6656,7 @@
       <c r="F171" s="44"/>
       <c r="G171" s="44"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="71" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -6706,7 +6668,7 @@
       <c r="F172" s="43"/>
       <c r="G172" s="43"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="72" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -6718,7 +6680,7 @@
       <c r="F173" s="44"/>
       <c r="G173" s="44"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="71" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -6730,7 +6692,7 @@
       <c r="F174" s="43"/>
       <c r="G174" s="43"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="72" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -6742,7 +6704,7 @@
       <c r="F175" s="44"/>
       <c r="G175" s="44"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="71" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -6754,7 +6716,7 @@
       <c r="F176" s="43"/>
       <c r="G176" s="43"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="72" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -6766,7 +6728,7 @@
       <c r="F177" s="44"/>
       <c r="G177" s="44"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="71" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -6778,7 +6740,7 @@
       <c r="F178" s="43"/>
       <c r="G178" s="43"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="72" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -6790,7 +6752,7 @@
       <c r="F179" s="44"/>
       <c r="G179" s="44"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="71" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -6802,7 +6764,7 @@
       <c r="F180" s="43"/>
       <c r="G180" s="43"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="72" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -6814,7 +6776,7 @@
       <c r="F181" s="44"/>
       <c r="G181" s="44"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="71" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -6826,7 +6788,7 @@
       <c r="F182" s="43"/>
       <c r="G182" s="43"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="72" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -6838,7 +6800,7 @@
       <c r="F183" s="44"/>
       <c r="G183" s="44"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="71" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -6850,7 +6812,7 @@
       <c r="F184" s="43"/>
       <c r="G184" s="43"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="72" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -6862,7 +6824,7 @@
       <c r="F185" s="44"/>
       <c r="G185" s="44"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="71" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -6874,7 +6836,7 @@
       <c r="F186" s="43"/>
       <c r="G186" s="43"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="72" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -6886,7 +6848,7 @@
       <c r="F187" s="44"/>
       <c r="G187" s="44"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="71" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -6898,7 +6860,7 @@
       <c r="F188" s="43"/>
       <c r="G188" s="43"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="72" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -6910,7 +6872,7 @@
       <c r="F189" s="44"/>
       <c r="G189" s="44"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="71" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -6922,7 +6884,7 @@
       <c r="F190" s="43"/>
       <c r="G190" s="43"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="72" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -6934,7 +6896,7 @@
       <c r="F191" s="44"/>
       <c r="G191" s="44"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="71" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -6946,7 +6908,7 @@
       <c r="F192" s="43"/>
       <c r="G192" s="43"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="72" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -6958,7 +6920,7 @@
       <c r="F193" s="44"/>
       <c r="G193" s="44"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="71" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -6970,7 +6932,7 @@
       <c r="F194" s="43"/>
       <c r="G194" s="43"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="72" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -6982,7 +6944,7 @@
       <c r="F195" s="44"/>
       <c r="G195" s="44"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="71" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -6994,7 +6956,7 @@
       <c r="F196" s="43"/>
       <c r="G196" s="43"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="72" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -7006,7 +6968,7 @@
       <c r="F197" s="44"/>
       <c r="G197" s="44"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="71" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -7018,7 +6980,7 @@
       <c r="F198" s="43"/>
       <c r="G198" s="43"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="72" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -7030,7 +6992,7 @@
       <c r="F199" s="44"/>
       <c r="G199" s="44"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="71" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -7042,7 +7004,7 @@
       <c r="F200" s="43"/>
       <c r="G200" s="43"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="72" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -7054,7 +7016,7 @@
       <c r="F201" s="44"/>
       <c r="G201" s="44"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="71" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -7066,7 +7028,7 @@
       <c r="F202" s="43"/>
       <c r="G202" s="43"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="72" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -7078,7 +7040,7 @@
       <c r="F203" s="44"/>
       <c r="G203" s="44"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="71" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -7090,7 +7052,7 @@
       <c r="F204" s="43"/>
       <c r="G204" s="43"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="72" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -7102,7 +7064,7 @@
       <c r="F205" s="44"/>
       <c r="G205" s="44"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="71" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -7114,7 +7076,7 @@
       <c r="F206" s="43"/>
       <c r="G206" s="43"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="72" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -7126,7 +7088,7 @@
       <c r="F207" s="44"/>
       <c r="G207" s="44"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="71" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -7138,7 +7100,7 @@
       <c r="F208" s="43"/>
       <c r="G208" s="43"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="72" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -7150,7 +7112,7 @@
       <c r="F209" s="44"/>
       <c r="G209" s="44"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="71" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -7162,7 +7124,7 @@
       <c r="F210" s="43"/>
       <c r="G210" s="43"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="72" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -7174,7 +7136,7 @@
       <c r="F211" s="44"/>
       <c r="G211" s="44"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="71" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -7186,7 +7148,7 @@
       <c r="F212" s="43"/>
       <c r="G212" s="43"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="72" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -7198,7 +7160,7 @@
       <c r="F213" s="44"/>
       <c r="G213" s="44"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="71" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -7210,7 +7172,7 @@
       <c r="F214" s="43"/>
       <c r="G214" s="43"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="72" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -7222,7 +7184,7 @@
       <c r="F215" s="44"/>
       <c r="G215" s="44"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="71" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -7234,7 +7196,7 @@
       <c r="F216" s="43"/>
       <c r="G216" s="43"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="72" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -7246,7 +7208,7 @@
       <c r="F217" s="44"/>
       <c r="G217" s="44"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="71" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -7258,7 +7220,7 @@
       <c r="F218" s="43"/>
       <c r="G218" s="43"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="72" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -7270,7 +7232,7 @@
       <c r="F219" s="44"/>
       <c r="G219" s="44"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="71" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -7282,7 +7244,7 @@
       <c r="F220" s="43"/>
       <c r="G220" s="43"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="72" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -7294,7 +7256,7 @@
       <c r="F221" s="44"/>
       <c r="G221" s="44"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="71" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -7306,7 +7268,7 @@
       <c r="F222" s="43"/>
       <c r="G222" s="43"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="72" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -7318,7 +7280,7 @@
       <c r="F223" s="44"/>
       <c r="G223" s="44"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="71" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -7330,7 +7292,7 @@
       <c r="F224" s="43"/>
       <c r="G224" s="43"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="72" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -7342,7 +7304,7 @@
       <c r="F225" s="44"/>
       <c r="G225" s="44"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="71" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -7354,7 +7316,7 @@
       <c r="F226" s="43"/>
       <c r="G226" s="43"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="72" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -7366,7 +7328,7 @@
       <c r="F227" s="44"/>
       <c r="G227" s="44"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="71" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -7378,7 +7340,7 @@
       <c r="F228" s="43"/>
       <c r="G228" s="43"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="72" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -7390,7 +7352,7 @@
       <c r="F229" s="44"/>
       <c r="G229" s="44"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="71" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -7402,7 +7364,7 @@
       <c r="F230" s="43"/>
       <c r="G230" s="43"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="72" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -7414,7 +7376,7 @@
       <c r="F231" s="44"/>
       <c r="G231" s="44"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="71" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -7426,7 +7388,7 @@
       <c r="F232" s="43"/>
       <c r="G232" s="43"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="72" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -7438,7 +7400,7 @@
       <c r="F233" s="44"/>
       <c r="G233" s="44"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="71" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -7450,7 +7412,7 @@
       <c r="F234" s="43"/>
       <c r="G234" s="43"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="72" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -7462,7 +7424,7 @@
       <c r="F235" s="44"/>
       <c r="G235" s="44"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="71" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -7474,7 +7436,7 @@
       <c r="F236" s="43"/>
       <c r="G236" s="43"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="72" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -7486,7 +7448,7 @@
       <c r="F237" s="44"/>
       <c r="G237" s="44"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="71" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -7498,7 +7460,7 @@
       <c r="F238" s="43"/>
       <c r="G238" s="43"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="72" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -7510,7 +7472,7 @@
       <c r="F239" s="44"/>
       <c r="G239" s="44"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="71" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -7522,7 +7484,7 @@
       <c r="F240" s="43"/>
       <c r="G240" s="43"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="72" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -7534,7 +7496,7 @@
       <c r="F241" s="44"/>
       <c r="G241" s="44"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="71" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -7546,7 +7508,7 @@
       <c r="F242" s="43"/>
       <c r="G242" s="43"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="72" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -7558,7 +7520,7 @@
       <c r="F243" s="44"/>
       <c r="G243" s="44"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="71" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -7570,7 +7532,7 @@
       <c r="F244" s="43"/>
       <c r="G244" s="43"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="72" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -7582,7 +7544,7 @@
       <c r="F245" s="44"/>
       <c r="G245" s="44"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="71" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -7594,7 +7556,7 @@
       <c r="F246" s="43"/>
       <c r="G246" s="43"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="72" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -7606,7 +7568,7 @@
       <c r="F247" s="44"/>
       <c r="G247" s="44"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="71" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -7618,7 +7580,7 @@
       <c r="F248" s="43"/>
       <c r="G248" s="43"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="72" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -7630,7 +7592,7 @@
       <c r="F249" s="44"/>
       <c r="G249" s="44"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="71" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -7642,7 +7604,7 @@
       <c r="F250" s="43"/>
       <c r="G250" s="43"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="72" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -7654,7 +7616,7 @@
       <c r="F251" s="44"/>
       <c r="G251" s="44"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="71" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -7666,7 +7628,7 @@
       <c r="F252" s="43"/>
       <c r="G252" s="43"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="72" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -7678,7 +7640,7 @@
       <c r="F253" s="44"/>
       <c r="G253" s="44"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="71" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -7690,7 +7652,7 @@
       <c r="F254" s="43"/>
       <c r="G254" s="43"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="72" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -7702,7 +7664,7 @@
       <c r="F255" s="44"/>
       <c r="G255" s="44"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="71" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -7714,7 +7676,7 @@
       <c r="F256" s="43"/>
       <c r="G256" s="43"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="72" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -7726,7 +7688,7 @@
       <c r="F257" s="44"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="71" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -7738,7 +7700,7 @@
       <c r="F258" s="43"/>
       <c r="G258" s="43"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="72" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -7750,7 +7712,7 @@
       <c r="F259" s="44"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="71" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -7762,7 +7724,7 @@
       <c r="F260" s="43"/>
       <c r="G260" s="43"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="72" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -7774,7 +7736,7 @@
       <c r="F261" s="44"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="71" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -7786,7 +7748,7 @@
       <c r="F262" s="43"/>
       <c r="G262" s="43"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="72" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -7798,7 +7760,7 @@
       <c r="F263" s="44"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="71" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -7810,7 +7772,7 @@
       <c r="F264" s="43"/>
       <c r="G264" s="43"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="72" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -7822,7 +7784,7 @@
       <c r="F265" s="44"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="71" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -7834,7 +7796,7 @@
       <c r="F266" s="43"/>
       <c r="G266" s="43"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="72" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -7846,7 +7808,7 @@
       <c r="F267" s="44"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="71" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -7858,7 +7820,7 @@
       <c r="F268" s="43"/>
       <c r="G268" s="43"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="72" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -7870,7 +7832,7 @@
       <c r="F269" s="44"/>
       <c r="G269" s="44"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="71" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -7882,7 +7844,7 @@
       <c r="F270" s="43"/>
       <c r="G270" s="43"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="72" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -7894,7 +7856,7 @@
       <c r="F271" s="44"/>
       <c r="G271" s="44"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="71" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -7906,7 +7868,7 @@
       <c r="F272" s="43"/>
       <c r="G272" s="43"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="72" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -7918,7 +7880,7 @@
       <c r="F273" s="44"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="71" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -7930,7 +7892,7 @@
       <c r="F274" s="43"/>
       <c r="G274" s="43"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="72" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -7942,7 +7904,7 @@
       <c r="F275" s="44"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="71" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -7954,7 +7916,7 @@
       <c r="F276" s="43"/>
       <c r="G276" s="43"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="72" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -7966,7 +7928,7 @@
       <c r="F277" s="44"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="71" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -7978,7 +7940,7 @@
       <c r="F278" s="43"/>
       <c r="G278" s="43"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="72" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -7990,7 +7952,7 @@
       <c r="F279" s="44"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="71" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -8002,7 +7964,7 @@
       <c r="F280" s="43"/>
       <c r="G280" s="43"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="72" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -8014,7 +7976,7 @@
       <c r="F281" s="44"/>
       <c r="G281" s="44"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="71" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -8026,7 +7988,7 @@
       <c r="F282" s="43"/>
       <c r="G282" s="43"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="72" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -8038,7 +8000,7 @@
       <c r="F283" s="44"/>
       <c r="G283" s="44"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="71" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -8050,7 +8012,7 @@
       <c r="F284" s="43"/>
       <c r="G284" s="43"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="72" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -8062,7 +8024,7 @@
       <c r="F285" s="44"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="71" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -8074,7 +8036,7 @@
       <c r="F286" s="43"/>
       <c r="G286" s="43"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="72" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -8086,7 +8048,7 @@
       <c r="F287" s="44"/>
       <c r="G287" s="44"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="71" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -8098,7 +8060,7 @@
       <c r="F288" s="43"/>
       <c r="G288" s="43"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="72" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -8110,7 +8072,7 @@
       <c r="F289" s="44"/>
       <c r="G289" s="44"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="71" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -8122,7 +8084,7 @@
       <c r="F290" s="43"/>
       <c r="G290" s="43"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="72" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -8134,7 +8096,7 @@
       <c r="F291" s="44"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="71" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -8146,7 +8108,7 @@
       <c r="F292" s="43"/>
       <c r="G292" s="43"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="72" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -8158,7 +8120,7 @@
       <c r="F293" s="44"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="71" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -8170,7 +8132,7 @@
       <c r="F294" s="43"/>
       <c r="G294" s="43"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="72" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -8182,7 +8144,7 @@
       <c r="F295" s="44"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="71" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -8194,7 +8156,7 @@
       <c r="F296" s="43"/>
       <c r="G296" s="43"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="72" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -8206,7 +8168,7 @@
       <c r="F297" s="44"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="71" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -8218,7 +8180,7 @@
       <c r="F298" s="43"/>
       <c r="G298" s="43"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="72" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -8230,7 +8192,7 @@
       <c r="F299" s="44"/>
       <c r="G299" s="44"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="71" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -8242,7 +8204,7 @@
       <c r="F300" s="43"/>
       <c r="G300" s="43"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="72" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -8254,7 +8216,7 @@
       <c r="F301" s="44"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="71" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -8266,7 +8228,7 @@
       <c r="F302" s="43"/>
       <c r="G302" s="43"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="72" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -8278,7 +8240,7 @@
       <c r="F303" s="44"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="71" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -8290,7 +8252,7 @@
       <c r="F304" s="43"/>
       <c r="G304" s="43"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="72" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -8302,7 +8264,7 @@
       <c r="F305" s="44"/>
       <c r="G305" s="44"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="71" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -8314,7 +8276,7 @@
       <c r="F306" s="43"/>
       <c r="G306" s="43"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="72" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -8326,7 +8288,7 @@
       <c r="F307" s="44"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="71" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -8338,7 +8300,7 @@
       <c r="F308" s="43"/>
       <c r="G308" s="43"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="72" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -8350,7 +8312,7 @@
       <c r="F309" s="44"/>
       <c r="G309" s="44"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="71" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -8362,7 +8324,7 @@
       <c r="F310" s="43"/>
       <c r="G310" s="43"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="72" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -8374,7 +8336,7 @@
       <c r="F311" s="44"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="71" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -8386,7 +8348,7 @@
       <c r="F312" s="43"/>
       <c r="G312" s="43"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="72" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -8398,7 +8360,7 @@
       <c r="F313" s="44"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="71" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -8410,7 +8372,7 @@
       <c r="F314" s="43"/>
       <c r="G314" s="43"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="72" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -8422,7 +8384,7 @@
       <c r="F315" s="44"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="71" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -8434,7 +8396,7 @@
       <c r="F316" s="43"/>
       <c r="G316" s="43"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="72" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -8446,7 +8408,7 @@
       <c r="F317" s="44"/>
       <c r="G317" s="44"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="71" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -8458,7 +8420,7 @@
       <c r="F318" s="43"/>
       <c r="G318" s="43"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="72" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -8470,7 +8432,7 @@
       <c r="F319" s="44"/>
       <c r="G319" s="44"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="71" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -8482,7 +8444,7 @@
       <c r="F320" s="43"/>
       <c r="G320" s="43"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="72" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -8494,7 +8456,7 @@
       <c r="F321" s="44"/>
       <c r="G321" s="44"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="71" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -8506,7 +8468,7 @@
       <c r="F322" s="43"/>
       <c r="G322" s="43"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="72" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -8518,7 +8480,7 @@
       <c r="F323" s="44"/>
       <c r="G323" s="44"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="71" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -8530,7 +8492,7 @@
       <c r="F324" s="43"/>
       <c r="G324" s="43"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="72" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -8542,7 +8504,7 @@
       <c r="F325" s="44"/>
       <c r="G325" s="44"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="71" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -8554,7 +8516,7 @@
       <c r="F326" s="43"/>
       <c r="G326" s="43"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="72" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -8566,7 +8528,7 @@
       <c r="F327" s="44"/>
       <c r="G327" s="44"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="71" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -8578,7 +8540,7 @@
       <c r="F328" s="43"/>
       <c r="G328" s="43"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="72" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -8590,7 +8552,7 @@
       <c r="F329" s="44"/>
       <c r="G329" s="44"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="71" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -8602,7 +8564,7 @@
       <c r="F330" s="43"/>
       <c r="G330" s="43"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="72" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -8614,7 +8576,7 @@
       <c r="F331" s="44"/>
       <c r="G331" s="44"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="71" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -8626,7 +8588,7 @@
       <c r="F332" s="43"/>
       <c r="G332" s="43"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="72" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -8638,7 +8600,7 @@
       <c r="F333" s="44"/>
       <c r="G333" s="44"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="71" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -8650,7 +8612,7 @@
       <c r="F334" s="43"/>
       <c r="G334" s="43"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="72" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -8662,7 +8624,7 @@
       <c r="F335" s="44"/>
       <c r="G335" s="44"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="71" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -8674,7 +8636,7 @@
       <c r="F336" s="43"/>
       <c r="G336" s="43"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="72" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -8686,7 +8648,7 @@
       <c r="F337" s="44"/>
       <c r="G337" s="44"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="71" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -8698,7 +8660,7 @@
       <c r="F338" s="43"/>
       <c r="G338" s="43"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="72" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -8710,7 +8672,7 @@
       <c r="F339" s="44"/>
       <c r="G339" s="44"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="71" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -8722,7 +8684,7 @@
       <c r="F340" s="43"/>
       <c r="G340" s="43"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="72" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -8734,7 +8696,7 @@
       <c r="F341" s="44"/>
       <c r="G341" s="44"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="71" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -8746,7 +8708,7 @@
       <c r="F342" s="43"/>
       <c r="G342" s="43"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="72" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -8758,7 +8720,7 @@
       <c r="F343" s="44"/>
       <c r="G343" s="44"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="71" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -8770,7 +8732,7 @@
       <c r="F344" s="43"/>
       <c r="G344" s="43"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="72" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -8782,7 +8744,7 @@
       <c r="F345" s="44"/>
       <c r="G345" s="44"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="71" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -8794,7 +8756,7 @@
       <c r="F346" s="43"/>
       <c r="G346" s="43"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="72" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -8806,7 +8768,7 @@
       <c r="F347" s="44"/>
       <c r="G347" s="44"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="71" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -8818,7 +8780,7 @@
       <c r="F348" s="43"/>
       <c r="G348" s="43"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="72" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -8830,7 +8792,7 @@
       <c r="F349" s="44"/>
       <c r="G349" s="44"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="71" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -8842,7 +8804,7 @@
       <c r="F350" s="43"/>
       <c r="G350" s="43"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="72" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -8854,7 +8816,7 @@
       <c r="F351" s="44"/>
       <c r="G351" s="44"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="71" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -8866,7 +8828,7 @@
       <c r="F352" s="43"/>
       <c r="G352" s="43"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="72" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -8878,7 +8840,7 @@
       <c r="F353" s="44"/>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="71" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -8890,7 +8852,7 @@
       <c r="F354" s="43"/>
       <c r="G354" s="43"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="72" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -8902,7 +8864,7 @@
       <c r="F355" s="44"/>
       <c r="G355" s="44"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="71" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -8914,7 +8876,7 @@
       <c r="F356" s="43"/>
       <c r="G356" s="43"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="72" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -8926,7 +8888,7 @@
       <c r="F357" s="44"/>
       <c r="G357" s="44"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="71" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -8938,7 +8900,7 @@
       <c r="F358" s="43"/>
       <c r="G358" s="43"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="72" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -8950,7 +8912,7 @@
       <c r="F359" s="44"/>
       <c r="G359" s="44"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="71" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -8962,7 +8924,7 @@
       <c r="F360" s="43"/>
       <c r="G360" s="43"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="72" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -8974,7 +8936,7 @@
       <c r="F361" s="44"/>
       <c r="G361" s="44"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="71" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -8986,7 +8948,7 @@
       <c r="F362" s="43"/>
       <c r="G362" s="43"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="72" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -8998,7 +8960,7 @@
       <c r="F363" s="44"/>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="71" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -9010,7 +8972,7 @@
       <c r="F364" s="43"/>
       <c r="G364" s="43"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="72" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -9022,7 +8984,7 @@
       <c r="F365" s="44"/>
       <c r="G365" s="44"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="71" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -9034,7 +8996,7 @@
       <c r="F366" s="43"/>
       <c r="G366" s="43"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="72" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -9046,7 +9008,7 @@
       <c r="F367" s="44"/>
       <c r="G367" s="44"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="71" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -9058,7 +9020,7 @@
       <c r="F368" s="43"/>
       <c r="G368" s="43"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="72" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -9070,7 +9032,7 @@
       <c r="F369" s="44"/>
       <c r="G369" s="44"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="71" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -9082,7 +9044,7 @@
       <c r="F370" s="43"/>
       <c r="G370" s="43"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="72" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -9094,7 +9056,7 @@
       <c r="F371" s="44"/>
       <c r="G371" s="44"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="71" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -9106,7 +9068,7 @@
       <c r="F372" s="43"/>
       <c r="G372" s="43"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="72" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -9118,7 +9080,7 @@
       <c r="F373" s="44"/>
       <c r="G373" s="44"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="71" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -9130,7 +9092,7 @@
       <c r="F374" s="43"/>
       <c r="G374" s="43"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="72" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -9142,7 +9104,7 @@
       <c r="F375" s="44"/>
       <c r="G375" s="44"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="71" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -9154,7 +9116,7 @@
       <c r="F376" s="43"/>
       <c r="G376" s="43"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="72" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -9166,7 +9128,7 @@
       <c r="F377" s="44"/>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="71" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -9178,7 +9140,7 @@
       <c r="F378" s="43"/>
       <c r="G378" s="43"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="72" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -9190,7 +9152,7 @@
       <c r="F379" s="44"/>
       <c r="G379" s="44"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="71" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -9202,7 +9164,7 @@
       <c r="F380" s="43"/>
       <c r="G380" s="43"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="72" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -9214,7 +9176,7 @@
       <c r="F381" s="44"/>
       <c r="G381" s="44"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="71" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -9226,7 +9188,7 @@
       <c r="F382" s="43"/>
       <c r="G382" s="43"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="72" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -9238,7 +9200,7 @@
       <c r="F383" s="44"/>
       <c r="G383" s="44"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="71" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -9250,7 +9212,7 @@
       <c r="F384" s="43"/>
       <c r="G384" s="43"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="72" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -9262,7 +9224,7 @@
       <c r="F385" s="44"/>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="71" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -9274,7 +9236,7 @@
       <c r="F386" s="43"/>
       <c r="G386" s="43"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="72" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -9286,7 +9248,7 @@
       <c r="F387" s="44"/>
       <c r="G387" s="44"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="71" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -9298,7 +9260,7 @@
       <c r="F388" s="43"/>
       <c r="G388" s="43"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="72" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -9310,7 +9272,7 @@
       <c r="F389" s="44"/>
       <c r="G389" s="44"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="71" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -9322,7 +9284,7 @@
       <c r="F390" s="43"/>
       <c r="G390" s="43"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="72" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -9334,7 +9296,7 @@
       <c r="F391" s="44"/>
       <c r="G391" s="44"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="71" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -9346,7 +9308,7 @@
       <c r="F392" s="43"/>
       <c r="G392" s="43"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="72" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -9358,7 +9320,7 @@
       <c r="F393" s="44"/>
       <c r="G393" s="44"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="71" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -9370,7 +9332,7 @@
       <c r="F394" s="43"/>
       <c r="G394" s="43"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="72" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -9382,7 +9344,7 @@
       <c r="F395" s="44"/>
       <c r="G395" s="44"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="71" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -9394,7 +9356,7 @@
       <c r="F396" s="43"/>
       <c r="G396" s="43"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="72" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -9406,7 +9368,7 @@
       <c r="F397" s="44"/>
       <c r="G397" s="44"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="71" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -9418,7 +9380,7 @@
       <c r="F398" s="43"/>
       <c r="G398" s="43"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="72" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -9430,7 +9392,7 @@
       <c r="F399" s="44"/>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="71" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -9442,7 +9404,7 @@
       <c r="F400" s="43"/>
       <c r="G400" s="43"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="72" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -9454,7 +9416,7 @@
       <c r="F401" s="44"/>
       <c r="G401" s="44"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="71" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -9466,7 +9428,7 @@
       <c r="F402" s="43"/>
       <c r="G402" s="43"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="72" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -9478,7 +9440,7 @@
       <c r="F403" s="44"/>
       <c r="G403" s="44"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="71" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -9490,7 +9452,7 @@
       <c r="F404" s="43"/>
       <c r="G404" s="43"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="72" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -9502,7 +9464,7 @@
       <c r="F405" s="44"/>
       <c r="G405" s="44"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="71" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -9514,7 +9476,7 @@
       <c r="F406" s="43"/>
       <c r="G406" s="43"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="72" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -9526,7 +9488,7 @@
       <c r="F407" s="44"/>
       <c r="G407" s="44"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="71" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -9538,7 +9500,7 @@
       <c r="F408" s="43"/>
       <c r="G408" s="43"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="72" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -9550,7 +9512,7 @@
       <c r="F409" s="44"/>
       <c r="G409" s="44"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="71" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -9562,7 +9524,7 @@
       <c r="F410" s="43"/>
       <c r="G410" s="43"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="72" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -9574,7 +9536,7 @@
       <c r="F411" s="44"/>
       <c r="G411" s="44"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="71" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -9586,7 +9548,7 @@
       <c r="F412" s="43"/>
       <c r="G412" s="43"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="72" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -9598,7 +9560,7 @@
       <c r="F413" s="44"/>
       <c r="G413" s="44"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="71" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -9610,7 +9572,7 @@
       <c r="F414" s="43"/>
       <c r="G414" s="43"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="72" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -9622,7 +9584,7 @@
       <c r="F415" s="44"/>
       <c r="G415" s="44"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="71" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -9634,7 +9596,7 @@
       <c r="F416" s="43"/>
       <c r="G416" s="43"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="72" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -9646,7 +9608,7 @@
       <c r="F417" s="44"/>
       <c r="G417" s="44"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="71" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -9658,7 +9620,7 @@
       <c r="F418" s="43"/>
       <c r="G418" s="43"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="72" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -9670,7 +9632,7 @@
       <c r="F419" s="44"/>
       <c r="G419" s="44"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="71" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -9682,7 +9644,7 @@
       <c r="F420" s="43"/>
       <c r="G420" s="43"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="72" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -9694,7 +9656,7 @@
       <c r="F421" s="44"/>
       <c r="G421" s="44"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="71" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -9706,7 +9668,7 @@
       <c r="F422" s="43"/>
       <c r="G422" s="43"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="72" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -9718,7 +9680,7 @@
       <c r="F423" s="44"/>
       <c r="G423" s="44"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="71" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -9730,7 +9692,7 @@
       <c r="F424" s="43"/>
       <c r="G424" s="43"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="72" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -9742,7 +9704,7 @@
       <c r="F425" s="44"/>
       <c r="G425" s="44"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="71" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -9754,7 +9716,7 @@
       <c r="F426" s="43"/>
       <c r="G426" s="43"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="72" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -9766,7 +9728,7 @@
       <c r="F427" s="44"/>
       <c r="G427" s="44"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="71" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -9778,7 +9740,7 @@
       <c r="F428" s="43"/>
       <c r="G428" s="43"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="72" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -9790,7 +9752,7 @@
       <c r="F429" s="44"/>
       <c r="G429" s="44"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="71" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -9802,7 +9764,7 @@
       <c r="F430" s="43"/>
       <c r="G430" s="43"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="72" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -9814,7 +9776,7 @@
       <c r="F431" s="44"/>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="71" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -9826,7 +9788,7 @@
       <c r="F432" s="43"/>
       <c r="G432" s="43"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="72" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -9838,7 +9800,7 @@
       <c r="F433" s="44"/>
       <c r="G433" s="44"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="71" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -9850,7 +9812,7 @@
       <c r="F434" s="43"/>
       <c r="G434" s="43"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="72" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -9862,7 +9824,7 @@
       <c r="F435" s="44"/>
       <c r="G435" s="44"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="71" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -9874,7 +9836,7 @@
       <c r="F436" s="43"/>
       <c r="G436" s="43"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="72" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -9886,7 +9848,7 @@
       <c r="F437" s="44"/>
       <c r="G437" s="44"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="71" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -9898,7 +9860,7 @@
       <c r="F438" s="43"/>
       <c r="G438" s="43"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="72" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -9910,7 +9872,7 @@
       <c r="F439" s="44"/>
       <c r="G439" s="44"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="71" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -9922,7 +9884,7 @@
       <c r="F440" s="43"/>
       <c r="G440" s="43"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="72" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -9934,7 +9896,7 @@
       <c r="F441" s="44"/>
       <c r="G441" s="44"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="71" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -9946,7 +9908,7 @@
       <c r="F442" s="43"/>
       <c r="G442" s="43"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="72" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -9958,7 +9920,7 @@
       <c r="F443" s="44"/>
       <c r="G443" s="44"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="71" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -9970,7 +9932,7 @@
       <c r="F444" s="43"/>
       <c r="G444" s="43"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="72" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -9982,7 +9944,7 @@
       <c r="F445" s="44"/>
       <c r="G445" s="44"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="71" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -9994,7 +9956,7 @@
       <c r="F446" s="43"/>
       <c r="G446" s="43"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="72" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -10006,7 +9968,7 @@
       <c r="F447" s="44"/>
       <c r="G447" s="44"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="71" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -10018,7 +9980,7 @@
       <c r="F448" s="43"/>
       <c r="G448" s="43"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="72" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -10030,7 +9992,7 @@
       <c r="F449" s="44"/>
       <c r="G449" s="44"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="71" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -10042,7 +10004,7 @@
       <c r="F450" s="43"/>
       <c r="G450" s="43"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="72" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -10054,7 +10016,7 @@
       <c r="F451" s="44"/>
       <c r="G451" s="44"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="71" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -10066,7 +10028,7 @@
       <c r="F452" s="43"/>
       <c r="G452" s="43"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="72" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -10078,7 +10040,7 @@
       <c r="F453" s="44"/>
       <c r="G453" s="44"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="71" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -10090,7 +10052,7 @@
       <c r="F454" s="43"/>
       <c r="G454" s="43"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="72" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -10102,7 +10064,7 @@
       <c r="F455" s="44"/>
       <c r="G455" s="44"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="71" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -10114,7 +10076,7 @@
       <c r="F456" s="43"/>
       <c r="G456" s="43"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="72" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -10126,7 +10088,7 @@
       <c r="F457" s="44"/>
       <c r="G457" s="44"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="71" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -10138,7 +10100,7 @@
       <c r="F458" s="43"/>
       <c r="G458" s="43"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="72" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -10150,7 +10112,7 @@
       <c r="F459" s="44"/>
       <c r="G459" s="44"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="71" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -10162,7 +10124,7 @@
       <c r="F460" s="43"/>
       <c r="G460" s="43"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="72" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -10174,7 +10136,7 @@
       <c r="F461" s="44"/>
       <c r="G461" s="44"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="71" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -10186,7 +10148,7 @@
       <c r="F462" s="43"/>
       <c r="G462" s="43"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="72" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -10198,7 +10160,7 @@
       <c r="F463" s="44"/>
       <c r="G463" s="44"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="71" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -10210,7 +10172,7 @@
       <c r="F464" s="43"/>
       <c r="G464" s="43"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="72" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -10222,7 +10184,7 @@
       <c r="F465" s="44"/>
       <c r="G465" s="44"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="71" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -10234,7 +10196,7 @@
       <c r="F466" s="43"/>
       <c r="G466" s="43"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="72" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -10246,7 +10208,7 @@
       <c r="F467" s="44"/>
       <c r="G467" s="44"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="71" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -10258,7 +10220,7 @@
       <c r="F468" s="43"/>
       <c r="G468" s="43"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="72" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -10270,7 +10232,7 @@
       <c r="F469" s="44"/>
       <c r="G469" s="44"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="71" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -10282,7 +10244,7 @@
       <c r="F470" s="43"/>
       <c r="G470" s="43"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="72" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -10294,7 +10256,7 @@
       <c r="F471" s="44"/>
       <c r="G471" s="44"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="71" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -10306,7 +10268,7 @@
       <c r="F472" s="43"/>
       <c r="G472" s="43"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="72" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -10318,7 +10280,7 @@
       <c r="F473" s="44"/>
       <c r="G473" s="44"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="71" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -10330,7 +10292,7 @@
       <c r="F474" s="43"/>
       <c r="G474" s="43"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="72" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -10342,7 +10304,7 @@
       <c r="F475" s="44"/>
       <c r="G475" s="44"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="71" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -10354,7 +10316,7 @@
       <c r="F476" s="43"/>
       <c r="G476" s="43"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="72" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -10366,7 +10328,7 @@
       <c r="F477" s="44"/>
       <c r="G477" s="44"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="71" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -10378,7 +10340,7 @@
       <c r="F478" s="43"/>
       <c r="G478" s="43"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="72" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -10390,7 +10352,7 @@
       <c r="F479" s="44"/>
       <c r="G479" s="44"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="71" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -10402,7 +10364,7 @@
       <c r="F480" s="43"/>
       <c r="G480" s="43"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="72" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -10414,7 +10376,7 @@
       <c r="F481" s="44"/>
       <c r="G481" s="44"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="71" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -10426,7 +10388,7 @@
       <c r="F482" s="43"/>
       <c r="G482" s="43"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="72" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -10438,7 +10400,7 @@
       <c r="F483" s="44"/>
       <c r="G483" s="44"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="71" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -10450,7 +10412,7 @@
       <c r="F484" s="43"/>
       <c r="G484" s="43"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="72" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -10462,7 +10424,7 @@
       <c r="F485" s="44"/>
       <c r="G485" s="44"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="71" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -10474,7 +10436,7 @@
       <c r="F486" s="43"/>
       <c r="G486" s="43"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="72" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -10486,7 +10448,7 @@
       <c r="F487" s="44"/>
       <c r="G487" s="44"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="71" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -10498,7 +10460,7 @@
       <c r="F488" s="43"/>
       <c r="G488" s="43"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="72" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -10510,7 +10472,7 @@
       <c r="F489" s="44"/>
       <c r="G489" s="44"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="71" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -10522,7 +10484,7 @@
       <c r="F490" s="43"/>
       <c r="G490" s="43"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="72" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -10534,7 +10496,7 @@
       <c r="F491" s="44"/>
       <c r="G491" s="44"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="71" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -10546,7 +10508,7 @@
       <c r="F492" s="43"/>
       <c r="G492" s="43"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="72" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -10558,7 +10520,7 @@
       <c r="F493" s="44"/>
       <c r="G493" s="44"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="71" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -10570,7 +10532,7 @@
       <c r="F494" s="43"/>
       <c r="G494" s="43"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="72" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -10582,7 +10544,7 @@
       <c r="F495" s="44"/>
       <c r="G495" s="44"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="71" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -10594,7 +10556,7 @@
       <c r="F496" s="43"/>
       <c r="G496" s="43"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="72" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -10606,7 +10568,7 @@
       <c r="F497" s="44"/>
       <c r="G497" s="44"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="71" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -10618,7 +10580,7 @@
       <c r="F498" s="43"/>
       <c r="G498" s="43"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="72" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -10630,7 +10592,7 @@
       <c r="F499" s="44"/>
       <c r="G499" s="44"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="71" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -10642,7 +10604,7 @@
       <c r="F500" s="43"/>
       <c r="G500" s="43"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="72" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -10654,7 +10616,7 @@
       <c r="F501" s="44"/>
       <c r="G501" s="44"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="71" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -10666,7 +10628,7 @@
       <c r="F502" s="43"/>
       <c r="G502" s="43"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="72" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -10678,7 +10640,7 @@
       <c r="F503" s="44"/>
       <c r="G503" s="44"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="71" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -10690,7 +10652,7 @@
       <c r="F504" s="43"/>
       <c r="G504" s="43"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="72" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -10702,7 +10664,7 @@
       <c r="F505" s="44"/>
       <c r="G505" s="44"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="71" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -10714,7 +10676,7 @@
       <c r="F506" s="43"/>
       <c r="G506" s="43"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="72" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -10726,7 +10688,7 @@
       <c r="F507" s="44"/>
       <c r="G507" s="44"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="71" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -10738,7 +10700,7 @@
       <c r="F508" s="43"/>
       <c r="G508" s="43"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="72" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -10750,7 +10712,7 @@
       <c r="F509" s="44"/>
       <c r="G509" s="44"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="71" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -10762,7 +10724,7 @@
       <c r="F510" s="43"/>
       <c r="G510" s="43"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="72" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -10774,7 +10736,7 @@
       <c r="F511" s="44"/>
       <c r="G511" s="44"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="71" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -10786,7 +10748,7 @@
       <c r="F512" s="43"/>
       <c r="G512" s="43"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="72" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -10798,7 +10760,7 @@
       <c r="F513" s="44"/>
       <c r="G513" s="44"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="71" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -10810,7 +10772,7 @@
       <c r="F514" s="43"/>
       <c r="G514" s="43"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="72" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -10822,7 +10784,7 @@
       <c r="F515" s="44"/>
       <c r="G515" s="44"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="71" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -10834,7 +10796,7 @@
       <c r="F516" s="43"/>
       <c r="G516" s="43"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="72" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -10846,7 +10808,7 @@
       <c r="F517" s="44"/>
       <c r="G517" s="44"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="71" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -10858,7 +10820,7 @@
       <c r="F518" s="43"/>
       <c r="G518" s="43"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="72" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -10870,7 +10832,7 @@
       <c r="F519" s="44"/>
       <c r="G519" s="44"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="71" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -10882,7 +10844,7 @@
       <c r="F520" s="43"/>
       <c r="G520" s="43"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="72" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -10894,7 +10856,7 @@
       <c r="F521" s="44"/>
       <c r="G521" s="44"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="71" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -10906,7 +10868,7 @@
       <c r="F522" s="43"/>
       <c r="G522" s="43"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="72" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -10918,7 +10880,7 @@
       <c r="F523" s="44"/>
       <c r="G523" s="44"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="71" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -10930,7 +10892,7 @@
       <c r="F524" s="43"/>
       <c r="G524" s="43"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="72" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -10942,7 +10904,7 @@
       <c r="F525" s="44"/>
       <c r="G525" s="44"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="71" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -10954,7 +10916,7 @@
       <c r="F526" s="43"/>
       <c r="G526" s="43"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="72" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -10966,7 +10928,7 @@
       <c r="F527" s="44"/>
       <c r="G527" s="44"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="71" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -10977,54 +10939,6 @@
       <c r="E528" s="37"/>
       <c r="F528" s="43"/>
       <c r="G528" s="43"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A529" s="72" t="str">
-        <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
-        <v/>
-      </c>
-      <c r="B529" s="38"/>
-      <c r="C529" s="39"/>
-      <c r="D529" s="40"/>
-      <c r="E529" s="41"/>
-      <c r="F529" s="44"/>
-      <c r="G529" s="44"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A530" s="71" t="str">
-        <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
-        <v/>
-      </c>
-      <c r="B530" s="34"/>
-      <c r="C530" s="35"/>
-      <c r="D530" s="36"/>
-      <c r="E530" s="37"/>
-      <c r="F530" s="43"/>
-      <c r="G530" s="43"/>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A531" s="72" t="str">
-        <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
-        <v/>
-      </c>
-      <c r="B531" s="38"/>
-      <c r="C531" s="39"/>
-      <c r="D531" s="40"/>
-      <c r="E531" s="41"/>
-      <c r="F531" s="44"/>
-      <c r="G531" s="44"/>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A532" s="71" t="str">
-        <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
-        <v/>
-      </c>
-      <c r="B532" s="34"/>
-      <c r="C532" s="35"/>
-      <c r="D532" s="36"/>
-      <c r="E532" s="37"/>
-      <c r="F532" s="43"/>
-      <c r="G532" s="43"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
@@ -11034,67 +10948,41 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E21 E23:E532">
-    <cfRule type="expression" dxfId="15" priority="1">
+  <conditionalFormatting sqref="E7:E21 E23:E528">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="7" priority="18">
-      <formula>$D35="Autre"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
-      <formula>$D35="Design"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="20" stopIfTrue="1">
-      <formula>$D35="Présentation"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
-      <formula>$D35="Meeting"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
-      <formula>$D35="Documentation"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="23" stopIfTrue="1">
-      <formula>$D35="Test"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$D35="Analyse"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
-      <formula>$D35="Développement"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
-      <formula1>$N$7:$N$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E21 E23:E532 D35" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E21 E23:E528" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
       <formula1>$M$7:$M$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D33 D35:D532 H32" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D528" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
       <formula1>$O$7:$O$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C528" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
+      <formula1>$N$7:$N$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11114,19 +11002,19 @@
       <selection activeCell="D7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="1" max="3" width="10.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="21" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E2" s="75" t="s">
         <v>24</v>
       </c>
@@ -11140,12 +11028,12 @@
       <c r="M2" s="50"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L3" s="22"/>
       <c r="M3" s="23"/>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E4" s="75" t="s">
         <v>25</v>
       </c>
@@ -11155,7 +11043,7 @@
       <c r="M4" s="46"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11185,13 +11073,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$C$7:$C$532)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E6,'Journal de travail'!$C$7:$C$528)*60</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E6,'Journal de travail'!$D$7:$D$528)</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -11222,18 +11110,18 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E7,'Journal de travail'!$C$7:$C$528)*60</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>155</v>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E7,'Journal de travail'!$D$7:$D$528)</f>
+        <v>280</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="E7" s="28" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11241,11 +11129,11 @@
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>2 h 35 min</v>
+        <v>4 h 40 min</v>
       </c>
       <c r="G7" s="54">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0.36046511627906974</v>
+        <v>0.48695652173913045</v>
       </c>
       <c r="L7" s="62" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11259,13 +11147,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$C$7:$C$532)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E8,'Journal de travail'!$C$7:$C$528)*60</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$D$7:$D$532)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E8,'Journal de travail'!$D$7:$D$528)</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -11296,18 +11184,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$C$7:$C$532)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E9,'Journal de travail'!$C$7:$C$528)*60</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>275</v>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E9,'Journal de travail'!$D$7:$D$528)</f>
+        <v>295</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11315,11 +11203,11 @@
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>4 h 35 min</v>
+        <v>4 h 55 min</v>
       </c>
       <c r="G9" s="54">
         <f t="shared" si="2"/>
-        <v>0.63953488372093026</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="L9" s="64" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11333,29 +11221,29 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUM(A6:A9)</f>
         <v>0</v>
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>430</v>
+        <v>575</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>430</v>
+        <v>575</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>7 h 10 min</v>
+        <v>9 h 35 min</v>
       </c>
       <c r="G10" s="55">
         <f>C10/C11</f>
-        <v>8.1439393939393936E-2</v>
+        <v>0.10890151515151515</v>
       </c>
       <c r="L10" s="65" t="s">
         <v>18</v>
@@ -11366,13 +11254,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>F2*60</f>
         <v>5280</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="49"/>
     </row>
   </sheetData>
@@ -11389,7 +11277,7 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="XbZXOKbfSAgLNZr8i9zbx3Mg5WERmkYtMQ92zj4MzR65FvyWSSvnn71Zle3H3OLpYxxTtkJ9EnrqgX4Va8ga5w==" saltValue="TZrTQ2fJcSarc1EkKUon9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JDT-Thibaud.xlsx
+++ b/Doc/JDT-Thibaud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thibaudracine/Documents/GitHub/324_portfolio_app1_Racine-Thibaud/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39E5A24-5991-7C4D-895B-E57878C7DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6001001-5D20-704D-A31D-FB3F05ED62ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17000" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>Auteur:</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>Sauvegarde du cache et artifact automatique avec GitHub Action</t>
+  </si>
+  <si>
+    <t>Tests avec Github Actions et création du YAML</t>
+  </si>
+  <si>
+    <t>Implémentation des Tests e2e et Unitaires</t>
+  </si>
+  <si>
+    <t>Mise à jour du journal de travail et mise en page de la documentation</t>
+  </si>
+  <si>
+    <t>Documentation des Tests Unitaires avec leur nom, but et résultat</t>
+  </si>
+  <si>
+    <t>Documentation des tests E2E et de la partie des difficultés rencontrées</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -668,16 +683,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -695,11 +700,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -712,88 +713,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1301,13 +1238,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,13 +2090,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36046511627906974</c:v>
+                  <c:v>0.46400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63953488372093026</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,18 +4075,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G528" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A6:G528" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4341,11 +4278,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF2E8F1-C793-7E43-B3DE-C075053A97DA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O532"/>
+  <dimension ref="A1:O528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4377,15 +4314,15 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4394,13 +4331,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="76" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>8 heures 5 minutes</v>
+        <v>11 heures 20 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4414,25 +4351,25 @@
     <row r="4" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="17">
-        <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,$C$7:$C$527)*60</f>
+        <v>60</v>
       </c>
       <c r="D4" s="17">
-        <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>485</v>
+        <f>SUBTOTAL(9,$D$7:$D$527)</f>
+        <v>620</v>
       </c>
       <c r="E4" s="27">
         <f>SUM(C4:D4)</f>
-        <v>485</v>
+        <v>680</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="96"/>
     </row>
     <row r="6" spans="1:15" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -4724,7 +4661,7 @@
       <c r="D17" s="40">
         <v>30</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -4772,7 +4709,7 @@
       <c r="D19" s="40">
         <v>20</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="26" t="s">
@@ -4829,7 +4766,7 @@
       <c r="D22" s="36">
         <v>55</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="90" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -4881,7 +4818,7 @@
       <c r="D25" s="40">
         <v>10</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -4901,7 +4838,7 @@
       <c r="D26" s="36">
         <v>20</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="93" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -4945,10 +4882,10 @@
       <c r="D28" s="36">
         <v>45</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="94" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="43"/>
@@ -4978,12 +4915,12 @@
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="83"/>
-      <c r="G30" s="92"/>
+      <c r="G30" s="89"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="72">
@@ -4997,7 +4934,7 @@
       <c r="D31" s="40">
         <v>30</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="25" t="s">
@@ -5006,109 +4943,142 @@
       <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="71">
+      <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v>51</v>
-      </c>
-      <c r="B32" s="34">
-        <v>45645</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="36"/>
+        <v/>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="89"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="72">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B33" s="38">
-        <v>45645</v>
+        <v>45663</v>
       </c>
       <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="25"/>
+      <c r="D33" s="40">
+        <v>45</v>
+      </c>
+      <c r="E33" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="71">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B34" s="34">
-        <v>45645</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="25"/>
+        <v>45663</v>
+      </c>
+      <c r="C34" s="35">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
+        <v>30</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="72">
+      <c r="A35" s="78" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v>51</v>
-      </c>
-      <c r="B35" s="38">
-        <v>45645</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="44"/>
+        <v/>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="84"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="str">
+      <c r="A36" s="71">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="92"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="34">
+        <v>45664</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36">
+        <v>20</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="72" t="str">
+      <c r="A37" s="72">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="38"/>
+        <v>2</v>
+      </c>
+      <c r="B37" s="38">
+        <v>45664</v>
+      </c>
       <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="25"/>
+      <c r="D37" s="40">
+        <v>10</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="str">
+      <c r="A38" s="71">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="34">
+        <v>45664</v>
+      </c>
       <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="25"/>
+      <c r="D38" s="36">
+        <v>30</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="72" t="str">
+      <c r="A39" s="78" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="44"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="84"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="71" t="str">
@@ -5263,7 +5233,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="36"/>
       <c r="E52" s="37"/>
-      <c r="F52" s="25"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -5275,7 +5245,7 @@
       <c r="C53" s="39"/>
       <c r="D53" s="40"/>
       <c r="E53" s="41"/>
-      <c r="F53" s="25"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="44"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5287,7 +5257,7 @@
       <c r="C54" s="35"/>
       <c r="D54" s="36"/>
       <c r="E54" s="37"/>
-      <c r="F54" s="25"/>
+      <c r="F54" s="43"/>
       <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5299,7 +5269,7 @@
       <c r="C55" s="39"/>
       <c r="D55" s="40"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="25"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -10977,54 +10947,6 @@
       <c r="E528" s="37"/>
       <c r="F528" s="43"/>
       <c r="G528" s="43"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A529" s="72" t="str">
-        <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
-        <v/>
-      </c>
-      <c r="B529" s="38"/>
-      <c r="C529" s="39"/>
-      <c r="D529" s="40"/>
-      <c r="E529" s="41"/>
-      <c r="F529" s="44"/>
-      <c r="G529" s="44"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A530" s="71" t="str">
-        <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
-        <v/>
-      </c>
-      <c r="B530" s="34"/>
-      <c r="C530" s="35"/>
-      <c r="D530" s="36"/>
-      <c r="E530" s="37"/>
-      <c r="F530" s="43"/>
-      <c r="G530" s="43"/>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A531" s="72" t="str">
-        <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
-        <v/>
-      </c>
-      <c r="B531" s="38"/>
-      <c r="C531" s="39"/>
-      <c r="D531" s="40"/>
-      <c r="E531" s="41"/>
-      <c r="F531" s="44"/>
-      <c r="G531" s="44"/>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A532" s="71" t="str">
-        <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
-        <v/>
-      </c>
-      <c r="B532" s="34"/>
-      <c r="C532" s="35"/>
-      <c r="D532" s="36"/>
-      <c r="E532" s="37"/>
-      <c r="F532" s="43"/>
-      <c r="G532" s="43"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
@@ -11034,67 +10956,41 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E21 E23:E532">
-    <cfRule type="expression" dxfId="15" priority="1">
+  <conditionalFormatting sqref="E7:E21 E23:E528">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="7" priority="18">
-      <formula>$D35="Autre"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
-      <formula>$D35="Design"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="20" stopIfTrue="1">
-      <formula>$D35="Présentation"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
-      <formula>$D35="Meeting"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
-      <formula>$D35="Documentation"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="23" stopIfTrue="1">
-      <formula>$D35="Test"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$D35="Analyse"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
-      <formula>$D35="Développement"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
-      <formula1>$N$7:$N$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E21 E23:E532 D35" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E21 E23:E528" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
       <formula1>$M$7:$M$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D33 D35:D532 H32" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D528" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
       <formula1>$O$7:$O$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C528" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
+      <formula1>$N$7:$N$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11187,11 +11083,11 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$C$7:$C$532)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E6,'Journal de travail'!$C$7:$C$528)*60</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E6,'Journal de travail'!$D$7:$D$528)</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -11224,16 +11120,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E7,'Journal de travail'!$C$7:$C$528)*60</f>
+        <v>60</v>
       </c>
       <c r="B7">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>155</v>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E7,'Journal de travail'!$D$7:$D$528)</f>
+        <v>230</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="E7" s="28" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11241,11 +11137,11 @@
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>2 h 35 min</v>
+        <v>4 h 50 min</v>
       </c>
       <c r="G7" s="54">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0.36046511627906974</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="L7" s="62" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11261,11 +11157,11 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$C$7:$C$532)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E8,'Journal de travail'!$C$7:$C$528)*60</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$D$7:$D$532)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E8,'Journal de travail'!$D$7:$D$528)</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -11298,16 +11194,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$C$7:$C$532)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E9,'Journal de travail'!$C$7:$C$528)*60</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>275</v>
+        <f>SUMIF('Journal de travail'!$E$7:$E$528,Plannification!E9,'Journal de travail'!$D$7:$D$528)</f>
+        <v>335</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11315,11 +11211,11 @@
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>4 h 35 min</v>
+        <v>5 h 35 min</v>
       </c>
       <c r="G9" s="54">
         <f t="shared" si="2"/>
-        <v>0.63953488372093026</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="L9" s="64" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11336,26 +11232,26 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>SUM(A6:A9)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>430</v>
+        <v>565</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>430</v>
+        <v>625</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>7 h 10 min</v>
+        <v>10 h 25 min</v>
       </c>
       <c r="G10" s="55">
         <f>C10/C11</f>
-        <v>8.1439393939393936E-2</v>
+        <v>0.11837121212121213</v>
       </c>
       <c r="L10" s="65" t="s">
         <v>18</v>
@@ -11398,14 +11294,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11604,27 +11498,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11649,9 +11536,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>